--- a/trunk/Danh sách chức năng.xlsx
+++ b/trunk/Danh sách chức năng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>Tên chức năng</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Quản lý thẻ Đảng, huy hiệu Đảng</t>
-  </si>
-  <si>
-    <t>Quản lý xếp loại</t>
   </si>
   <si>
     <t>Các chức năng khác</t>
@@ -196,6 +193,24 @@
   </si>
   <si>
     <t>Lập quyết định Đảng ủy</t>
+  </si>
+  <si>
+    <t>Lập nghị quyết Chi bộ đề nghị công nhận Đảng chính thức</t>
+  </si>
+  <si>
+    <t>Lập nghị quyết Đảng ủy đề nghị công nhận Đảng chính thức</t>
+  </si>
+  <si>
+    <t>Cập nhật hệ số phụ cấp chức vụ</t>
+  </si>
+  <si>
+    <t>Cập nhật hệ số phụ cấp thâm niên</t>
+  </si>
+  <si>
+    <t>Cập nhật hệ số phụ cấp vượt khung</t>
+  </si>
+  <si>
+    <t>Quản lý đánh giá, phân loại Đảng viên</t>
   </si>
 </sst>
 </file>
@@ -206,7 +221,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -214,7 +229,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -292,33 +307,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -335,9 +335,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,518 +617,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="F6">
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="F13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>48</v>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>48</v>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="1" t="s">
+    <row r="39" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A5:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
